--- a/Tests/Flight Reservation/Book Flight/Departing And Arriving Locations/Default.xlsx
+++ b/Tests/Flight Reservation/Book Flight/Departing And Arriving Locations/Default.xlsx
@@ -263,10 +263,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -597,8 +597,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9.1484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,7 +611,7 @@
       </c>
     </row>
     <row s="1" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>5</v>
       </c>
       <c s="2" t="s">
@@ -619,7 +619,7 @@
       </c>
     </row>
     <row s="1" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>0</v>
       </c>
       <c s="2" t="s">
@@ -646,8 +646,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9.1484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -660,7 +660,7 @@
       </c>
     </row>
     <row s="1" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>13</v>
       </c>
       <c s="2" t="s">
@@ -668,7 +668,7 @@
       </c>
     </row>
     <row s="1" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>14</v>
       </c>
       <c s="2" t="s">
@@ -676,7 +676,7 @@
       </c>
     </row>
     <row ht="12.75" customHeight="1" s="1" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>13</v>
       </c>
       <c s="2" t="s">
@@ -684,7 +684,7 @@
       </c>
     </row>
     <row s="1" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>2</v>
       </c>
       <c s="2" t="s">
@@ -692,7 +692,7 @@
       </c>
     </row>
     <row s="1" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>15</v>
       </c>
       <c s="2" t="s">
@@ -700,7 +700,7 @@
       </c>
     </row>
     <row s="1" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>6</v>
       </c>
       <c s="2" t="s">
@@ -708,7 +708,7 @@
       </c>
     </row>
     <row s="1" customFormat="1">
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>3</v>
       </c>
       <c s="2" t="s">
